--- a/Team A - Great Outdoors/Task Board - Team A - Sprint 3.xlsx
+++ b/Team A - Great Outdoors/Task Board - Team A - Sprint 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pecunia\Team A - Great Outdoors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345CE41C-0031-47BB-AC37-1E75F589F27D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0BD99F-CCCC-483B-9BA1-2BC475D4D9F1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{317639EC-0F07-4F6E-9E04-3A37FA8D1CDA}"/>
   </bookViews>
@@ -62,12 +62,6 @@
     <t>Team A</t>
   </si>
   <si>
-    <t>Create Order</t>
-  </si>
-  <si>
-    <t>Prepare Test Cases using Excel MSUnit for all CRUD operations</t>
-  </si>
-  <si>
     <t>Create Stored Procedures for all CRUD Operations</t>
   </si>
   <si>
@@ -90,6 +84,12 @@
   </si>
   <si>
     <t>UI - Create OrdersService using Angular for CRUD operations</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>Prepare Test Cases using Excel for all CRUD operations</t>
   </si>
 </sst>
 </file>
@@ -185,13 +185,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,7 +509,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -521,11 +521,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -564,53 +564,53 @@
       </c>
     </row>
     <row r="7" spans="1:3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Team A - Great Outdoors/Task Board - Team A - Sprint 3.xlsx
+++ b/Team A - Great Outdoors/Task Board - Team A - Sprint 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pecunia\Team A - Great Outdoors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0BD99F-CCCC-483B-9BA1-2BC475D4D9F1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1DD170-9C11-4ADF-94DE-3DEE6B12A25D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{317639EC-0F07-4F6E-9E04-3A37FA8D1CDA}"/>
   </bookViews>
@@ -50,12 +50,6 @@
     <t>Person 1</t>
   </si>
   <si>
-    <t>Use Case:</t>
-  </si>
-  <si>
-    <t>Use Case 1</t>
-  </si>
-  <si>
     <t>Team:</t>
   </si>
   <si>
@@ -68,9 +62,6 @@
     <t>Create SQL Server table named "Orders"</t>
   </si>
   <si>
-    <t>Prepare Test Cases using MSUnit test cases for all CRUD operations</t>
-  </si>
-  <si>
     <t>UI - Create Angular Component &amp; Template for "Orders Page" using Bootstrap &amp; Angular</t>
   </si>
   <si>
@@ -90,13 +81,22 @@
   </si>
   <si>
     <t>Prepare Test Cases using Excel for all CRUD operations</t>
+  </si>
+  <si>
+    <t>Prepare Test Cases using MSUnit for all CRUD operations</t>
+  </si>
+  <si>
+    <t>UI - Create Angular - InMemory Fake WebAPI</t>
+  </si>
+  <si>
+    <t>Use Case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +126,14 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -168,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -191,6 +199,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,116 +517,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5872C2-E2B7-46AE-AAB7-4EED1F60CC50}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="95.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="19.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="95.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="9">
+        <f>SUM(C7:C16)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C8" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>16</v>
+      <c r="C16" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
